--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_education_unparsed_uncoded.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_education_unparsed_uncoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CareerDateString_2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CareerStringID</t>
         </is>
       </c>
@@ -451,9 +456,10 @@
           <t>1950.～52. 러시아 공군대학 유학, 귀국</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>135</t>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -463,9 +469,10 @@
           <t>1951.~57. 루마니아 유학 연도미상 당 조직지도부, 과학교육부, 기계공업부 등 근무 1970년대 당 중앙위 부부장</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>140</t>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -475,9 +482,10 @@
           <t>1953. 모스크바대학(외교학 전공)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>156</t>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -487,9 +495,10 @@
           <t>1962. 소련 프룬제군사대학 유학</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>276</t>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>282</t>
         </is>
       </c>
     </row>
@@ -499,9 +508,10 @@
           <t>1962. 소련 해군대학 유학</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>277</t>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>283</t>
         </is>
       </c>
     </row>
@@ -511,9 +521,10 @@
           <t>1969. 모스크바 유학</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>393</t>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>399</t>
         </is>
       </c>
     </row>
@@ -525,7 +536,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4315</t>
         </is>
       </c>
     </row>
@@ -537,7 +553,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4744</t>
+          <t>1950 ~ 1952</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5292</t>
         </is>
       </c>
     </row>
@@ -549,175 +570,239 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4757</t>
+          <t>1951 ~ 1957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5305</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>모스크바 유학</t>
+          <t>루마니아 유학</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4792</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5306</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>모스크바대학(외교학 전공)</t>
+          <t>모스크바 유학</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4795</t>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5341</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>소련 프룬제군사대학 유학</t>
+          <t>모스크바대학(외교학 전공)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5344</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>소련 해군대학 유학</t>
+          <t>소련 프룬제군사대학 유학</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5717</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>소련아카데미 유학</t>
+          <t>소련 해군대학 유학</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5096</t>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5718</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>연도미상 김일성종합대학, 체코 프라하공대(기계공학 전공)</t>
+          <t>소련아카데미 유학</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5726</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>연도미상 소련아카데미 유학</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5201</t>
+          <t>연도미상 김일성종합대학, 체코 프라하공대(기계공학 전공)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5826</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>연도미상 연희전문 2년 중퇴, 일본유학</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5202</t>
+          <t>연도미상 소련아카데미 유학</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5837</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>연도미상 김일성종합대학 외문학부 러시아어 전공</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5262</t>
+          <t>연도미상 연희전문 2년 중퇴, 일본유학</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5838</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>연도미상 루마니아 유학</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5300</t>
+          <t>연도미상 김일성종합대학 외문학부 러시아어 전공</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5898</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>연도미상 일본음악학교, 소련유학</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5341</t>
+          <t>연도미상 루마니아 유학</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5936</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>연도미상 평양건설건재대학 졸업, 소련유학</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>5363</t>
+          <t>연도미상 일본음악학교, 소련유학</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5977</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>연희전문학교 2년 중퇴, 일본 유학(릿쿄대학)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5399</t>
+          <t>연도미상 평양건설건재대학 졸업, 소련유학</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5999</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>연희전문학교 2년 중퇴, 일본 유학(릿쿄대학)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6035</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>일본음악학교, 소련유학</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5620</t>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6343</t>
         </is>
       </c>
     </row>
